--- a/01_kidsweb/home/kids2/report_tmp/slip_debitnote.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_debitnote.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D84B3-DD91-4368-8D62-048AEC7F87D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86604181-7D0E-4ECE-ADCD-E76280C58DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,16 +72,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t xml:space="preserve">Payment Terms         </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> DEBIT NOTE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">             DESCRIPTION</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -116,14 +112,14 @@
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>リビジョン番号</t>
     <rPh sb="5" eb="7">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>納品伝票コード</t>
@@ -133,7 +129,7 @@
     <rPh sb="2" eb="4">
       <t>デンピョウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>売上番号</t>
@@ -150,7 +146,7 @@
     <rPh sb="0" eb="2">
       <t>コキャク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>顧客社名</t>
@@ -160,7 +156,7 @@
     <rPh sb="2" eb="4">
       <t>シャメイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>顧客名</t>
@@ -170,7 +166,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>顧客担当者名</t>
@@ -183,14 +179,14 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>納品日</t>
     <rPh sb="0" eb="3">
       <t>ノウヒンビ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>納品場所コード</t>
@@ -200,7 +196,7 @@
     <rPh sb="2" eb="4">
       <t>バショ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>納品場所名</t>
@@ -213,7 +209,7 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>納品場所担当者名</t>
@@ -229,14 +225,14 @@
     <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>担当者コード</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>担当者名</t>
@@ -246,7 +242,7 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>合計金額</t>
@@ -256,7 +252,7 @@
     <rPh sb="2" eb="4">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>通貨単位コード</t>
@@ -266,7 +262,7 @@
     <rPh sb="2" eb="4">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>通貨単位</t>
@@ -276,7 +272,7 @@
     <rPh sb="2" eb="4">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>課税区分コード</t>
@@ -286,7 +282,7 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>課税区分</t>
@@ -296,7 +292,7 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消費税率</t>
@@ -306,21 +302,21 @@
     <rPh sb="2" eb="4">
       <t>ゼイリツ</t>
     </rPh>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消費税額</t>
@@ -416,72 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顧客担当者</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ロジパルお台場</t>
-    <rPh sb="5" eb="7">
-      <t>ダイバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご担当者</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起票者</t>
-    <rPh sb="0" eb="2">
-      <t>キヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外税</t>
-    <rPh sb="0" eb="2">
-      <t>ソトゼイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フッタ部の備考</t>
-    <rPh sb="3" eb="4">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>10123</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>納品伝票明細番号</t>
     <rPh sb="0" eb="2">
       <t>ノウヒン</t>
@@ -495,7 +425,7 @@
     <rPh sb="6" eb="8">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>顧客受注番号</t>
@@ -508,7 +438,7 @@
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>売上区分コード</t>
@@ -518,7 +448,7 @@
     <rPh sb="2" eb="4">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>売上区分名</t>
@@ -531,7 +461,7 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>顧客品番</t>
@@ -541,14 +471,14 @@
     <rPh sb="2" eb="4">
       <t>ヒンバン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>製品コード</t>
     <rPh sb="0" eb="2">
       <t>セイヒン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>再販コード</t>
@@ -561,7 +491,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>製品名（英語）</t>
@@ -574,14 +504,14 @@
     <rPh sb="4" eb="6">
       <t>エイゴ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>単価</t>
     <rPh sb="0" eb="2">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>入数</t>
@@ -598,7 +528,7 @@
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>製品単位コード</t>
@@ -608,7 +538,7 @@
     <rPh sb="2" eb="4">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>製品単位名</t>
@@ -621,14 +551,14 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>小計</t>
     <rPh sb="0" eb="2">
       <t>ショウケイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>明細備考</t>
@@ -638,7 +568,7 @@
     <rPh sb="2" eb="4">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>lngslipdetailno</t>
@@ -696,90 +626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本荷</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>00001</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0001</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>製品名1</t>
-    <rPh sb="0" eb="3">
-      <t>セイヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>cs</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考1</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>納品書明細2</t>
     <rPh sb="0" eb="3">
       <t>ノウヒンショ</t>
@@ -875,21 +721,6 @@
     <t>strcustomerfaxno</t>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>roduct name 1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>顧客住所1</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -942,56 +773,6 @@
   </si>
   <si>
     <t>strcustomeraddress4</t>
-  </si>
-  <si>
-    <t>N.T., HONGKONG</t>
-  </si>
-  <si>
-    <t>KWAI CHUNG</t>
-  </si>
-  <si>
-    <t>14-20 WING YIP STREET,</t>
-  </si>
-  <si>
-    <t>UNIT B,20/F,WAH WING INDUSTRIAL BUILDING</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>23-456-7890</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>23-456-7891</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>US$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>APEX　DESIGN&amp;ENGINEERING CO., LTD.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>仕入先コード（出荷者）</t>
@@ -1007,18 +788,22 @@
     <t>strshippercode</t>
   </si>
   <si>
-    <t xml:space="preserve">D/N NO.  : </t>
+    <t xml:space="preserve">KWG NO.  : </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEBIT NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1058,12 +843,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1168,6 +947,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1177,7 +963,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1341,28 +1127,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1378,43 +1190,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="56" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1423,85 +1235,85 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1556,13 +1368,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2024,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2046,7 +1858,7 @@
     <row r="1" spans="1:8" ht="12" customHeight="1"/>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="D7" s="62" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E7" s="63"/>
       <c r="F7" s="2"/>
@@ -2056,507 +1868,518 @@
     <row r="9" spans="1:8" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="8" t="str">
         <f>CONCATENATE("          ",データ設定用!H3)</f>
-        <v xml:space="preserve">          APEX　DESIGN&amp;ENGINEERING CO., LTD.</v>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="B9" s="8"/>
       <c r="G9" s="10" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="H9" s="40">
         <f>データ設定用!D3</f>
-        <v>11111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="29" t="str">
         <f>CONCATENATE("                 ",データ設定用!L3," ",データ設定用!K3)</f>
-        <v xml:space="preserve">                 UNIT B,20/F,WAH WING INDUSTRIAL BUILDING 14-20 WING YIP STREET,</v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="11" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="29" t="str">
         <f>CONCATENATE("                 ",データ設定用!J3," ",データ設定用!I3)</f>
-        <v xml:space="preserve">                 KWAI CHUNG N.T., HONGKONG</v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="D11" s="12"/>
       <c r="G11" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="39">
-        <f>データ設定用!AC3</f>
-        <v>43738</v>
+        <f>データ設定用!P3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="29" t="str">
         <f>CONCATENATE("                 Tel: ",データ設定用!M3,"    Fax.: ",データ設定用!N3)</f>
-        <v xml:space="preserve">                 Tel: 123-456-7890    Fax.: 123-456-7891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1"/>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7" t="s">
+        <v xml:space="preserve">                 Tel:     Fax.: </v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="29" t="str">
+        <f>CONCATENATE("                 ",データ設定用!O3)</f>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="str">
+      <c r="G15" s="4" t="str">
         <f>CONCATENATE("UNIT PRICE",CHAR(10),CHAR(40),データ設定用!$X$3,CHAR(41))</f>
         <v>UNIT PRICE
-(US$)</v>
-      </c>
-      <c r="H14" s="43" t="str">
+()</v>
+      </c>
+      <c r="H15" s="43" t="str">
         <f>CONCATENATE("AMOUNT",CHAR(40),データ設定用!$X$3,CHAR(41))</f>
-        <v>AMOUNT(US$)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="28" t="str">
+        <v>AMOUNT()</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="28" t="str">
         <f>IF(データ設定用!$L$6="","",データ設定用!$L$6)</f>
-        <v>Product name 1</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="44" t="str">
-        <f>CONCATENATE(データ設定用!$O$6,データ設定用!$Q$6)</f>
-        <v>10000pcs</v>
-      </c>
-      <c r="G15" s="45">
-        <f>IF(データ設定用!$M$6="","",データ設定用!$M$6)</f>
-        <v>1000</v>
-      </c>
-      <c r="H15" s="46">
-        <f>IF(データ設定用!$R$6="","",データ設定用!$R$6)</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="16" t="str">
-        <f>IF(データ設定用!$G$6="","",データ設定用!$G$6)</f>
-        <v>本荷</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="22"/>
+        <v/>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
+      <c r="F16" s="44" t="str">
+        <f>CONCATENATE(データ設定用!$O$6,データ設定用!$Q$6)</f>
+        <v/>
+      </c>
+      <c r="G16" s="61" t="str">
+        <f>IF(データ設定用!$M$6="","",データ設定用!$M$6)</f>
+        <v/>
+      </c>
+      <c r="H16" s="45" t="str">
+        <f>IF(データ設定用!$R$6="","",データ設定用!$R$6)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="16" t="str">
-        <f>IF(データ設定用!$S$6="","",データ設定用!$S$6)</f>
-        <v>備考1</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+        <f>IF(データ設定用!$G$6="","",データ設定用!$G$6)</f>
+        <v/>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="16" t="str">
+        <f>IF(データ設定用!$S$6="","",データ設定用!$S$6)</f>
+        <v/>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="50" t="str">
         <f>IF(データ設定用!$E$6="","",CONCATENATE(CHAR(40), "PO No:",データ設定用!$E$6,CHAR(41)))</f>
-        <v>(PO No:10000001)</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="28" t="str">
+        <v/>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="28" t="str">
         <f>IF(データ設定用!$L$7="","",データ設定用!$L$7)</f>
         <v/>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="44" t="str">
-        <f>CONCATENATE(データ設定用!$O$7,データ設定用!$Q$7)</f>
-        <v/>
-      </c>
-      <c r="G19" s="45" t="str">
-        <f>IF(データ設定用!$M$7="","",データ設定用!$M$7)</f>
-        <v/>
-      </c>
-      <c r="H19" s="46" t="str">
-        <f>IF(データ設定用!$R$7="","",データ設定用!$R$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="16" t="str">
-        <f>IF(データ設定用!$G$7="","",データ設定用!$G$7)</f>
-        <v/>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
+      <c r="F20" s="44" t="str">
+        <f>CONCATENATE(データ設定用!$O$7,データ設定用!$Q$7)</f>
+        <v/>
+      </c>
+      <c r="G20" s="61" t="str">
+        <f>IF(データ設定用!$M$7="","",データ設定用!$M$7)</f>
+        <v/>
+      </c>
+      <c r="H20" s="45" t="str">
+        <f>IF(データ設定用!$R$7="","",データ設定用!$R$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="16" t="str">
-        <f>IF(データ設定用!$S$7="","",データ設定用!$S$7)</f>
-        <v/>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+        <f>IF(データ設定用!$G$7="","",データ設定用!$G$7)</f>
+        <v/>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="51" t="str">
+      <c r="A22" s="16" t="str">
+        <f>IF(データ設定用!$S$7="","",データ設定用!$S$7)</f>
+        <v/>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="50" t="str">
         <f>IF(データ設定用!$E$7="","",CONCATENATE(CHAR(40), "PO No:",データ設定用!$E$7,CHAR(41)))</f>
         <v/>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="28" t="str">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="28" t="str">
         <f>IF(データ設定用!$L$8="","",データ設定用!$L$8)</f>
         <v/>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="44" t="str">
-        <f>CONCATENATE(データ設定用!$O$8,データ設定用!$Q$8)</f>
-        <v/>
-      </c>
-      <c r="G23" s="45" t="str">
-        <f>IF(データ設定用!$M$8="","",データ設定用!$M$8)</f>
-        <v/>
-      </c>
-      <c r="H23" s="46" t="str">
-        <f>IF(データ設定用!$R$8="","",データ設定用!$R$8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="16" t="str">
-        <f>IF(データ設定用!$G$8="","",データ設定用!$G$8)</f>
-        <v/>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="F24" s="44" t="str">
+        <f>CONCATENATE(データ設定用!$O$8,データ設定用!$Q$8)</f>
+        <v/>
+      </c>
+      <c r="G24" s="61" t="str">
+        <f>IF(データ設定用!$M$8="","",データ設定用!$M$8)</f>
+        <v/>
+      </c>
+      <c r="H24" s="45" t="str">
+        <f>IF(データ設定用!$R$8="","",データ設定用!$R$8)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="16" t="str">
-        <f>IF(データ設定用!$S$8="","",データ設定用!$S$8)</f>
-        <v/>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+        <f>IF(データ設定用!$G$8="","",データ設定用!$G$8)</f>
+        <v/>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="51" t="str">
+      <c r="A26" s="16" t="str">
+        <f>IF(データ設定用!$S$8="","",データ設定用!$S$8)</f>
+        <v/>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="50" t="str">
         <f>IF(データ設定用!$E$8="","",CONCATENATE(CHAR(40), "PO No:",データ設定用!$E$8,CHAR(41)))</f>
         <v/>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="28" t="str">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="28" t="str">
         <f>IF(データ設定用!$L$9="","",データ設定用!$L$9)</f>
-        <v/>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="44" t="str">
-        <f>CONCATENATE(データ設定用!$O$9,データ設定用!$Q$9)</f>
-        <v/>
-      </c>
-      <c r="G27" s="45" t="str">
-        <f>IF(データ設定用!$M$9="","",データ設定用!$M$9)</f>
-        <v/>
-      </c>
-      <c r="H27" s="46" t="str">
-        <f>IF(データ設定用!$R$9="","",データ設定用!$R$9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="16" t="str">
-        <f>IF(データ設定用!$G$9="","",データ設定用!$G$9)</f>
         <v/>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="F28" s="44" t="str">
+        <f>CONCATENATE(データ設定用!$O$9,データ設定用!$Q$9)</f>
+        <v/>
+      </c>
+      <c r="G28" s="61" t="str">
+        <f>IF(データ設定用!$M$9="","",データ設定用!$M$9)</f>
+        <v/>
+      </c>
+      <c r="H28" s="45" t="str">
+        <f>IF(データ設定用!$R$9="","",データ設定用!$R$9)</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="16" t="str">
-        <f>IF(データ設定用!$S$9="","",データ設定用!$S$9)</f>
+        <f>IF(データ設定用!$G$9="","",データ設定用!$G$9)</f>
         <v/>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="51" t="str">
+      <c r="A30" s="16" t="str">
+        <f>IF(データ設定用!$S$9="","",データ設定用!$S$9)</f>
+        <v/>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="50" t="str">
         <f>IF(データ設定用!$E$9="","",CONCATENATE(CHAR(40), "PO No:",データ設定用!$E$9,CHAR(41)))</f>
         <v/>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="28" t="str">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="28" t="str">
         <f>IF(データ設定用!$L$10="","",データ設定用!$L$10)</f>
-        <v/>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="44" t="str">
-        <f>CONCATENATE(データ設定用!$O$10,データ設定用!$Q$10)</f>
-        <v/>
-      </c>
-      <c r="G31" s="45" t="str">
-        <f>IF(データ設定用!$M$10="","",データ設定用!$M$10)</f>
-        <v/>
-      </c>
-      <c r="H31" s="46" t="str">
-        <f>IF(データ設定用!$R$10="","",データ設定用!$R$10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="16" t="str">
-        <f>IF(データ設定用!$G$10="","",データ設定用!$G$10)</f>
         <v/>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
+      <c r="F32" s="44" t="str">
+        <f>CONCATENATE(データ設定用!$O$10,データ設定用!$Q$10)</f>
+        <v/>
+      </c>
+      <c r="G32" s="61" t="str">
+        <f>IF(データ設定用!$M$10="","",データ設定用!$M$10)</f>
+        <v/>
+      </c>
+      <c r="H32" s="45" t="str">
+        <f>IF(データ設定用!$R$10="","",データ設定用!$R$10)</f>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="16" t="str">
-        <f>IF(データ設定用!$S$10="","",データ設定用!$S$10)</f>
+        <f>IF(データ設定用!$G$10="","",データ設定用!$G$10)</f>
         <v/>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="51" t="str">
+      <c r="A34" s="16" t="str">
+        <f>IF(データ設定用!$S$10="","",データ設定用!$S$10)</f>
+        <v/>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="50" t="str">
         <f>IF(データ設定用!$E$10="","",CONCATENATE(CHAR(40), "PO No:",データ設定用!$E$10,CHAR(41)))</f>
         <v/>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="64" t="str">
-        <f>データ設定用!AE3</f>
-        <v>フッタ部の備考</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="57">
+      <c r="A36" s="64" t="str">
+        <f>IF(データ設定用!AE3="","",データ設定用!AE3)</f>
+        <v/>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+    </row>
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="59"/>
+      <c r="H38" s="56">
         <f>データ設定用!V3</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="37" t="str">
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="37" t="str">
         <f>CONCATENATE(": 100% By ",IF(データ設定用!$AB$3=1,"T/T","Offset")," on ",MONTH(データ設定用!AC3),"/",DAY(データ設定用!AC3),"/",YEAR(データ設定用!AC3))</f>
-        <v>: 100% By T/T on 9/30/2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="23" t="str">
-        <f>IF(データ設定用!$AB$3=1,"Name of Bank","")</f>
-        <v>Name of Bank</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26" t="str">
-        <f>IF(データ設定用!$AB$3=1,": MUFG BANK, LTD.","")</f>
-        <v>: MUFG BANK, LTD.</v>
+        <v>: 100% By Offset on 1/0/1900</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="23" t="str">
-        <f>IF(データ設定用!$AB$3=1,"Name of Branch","")</f>
-        <v>Name of Branch</v>
+        <f>IF(データ設定用!$AB$3=1,"Name of Bank","")</f>
+        <v/>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="26" t="str">
-        <f>IF(データ設定用!$AB$3=1,": ASAKUSA BRANCH","")</f>
-        <v>: ASAKUSA BRANCH</v>
+        <f>IF(データ設定用!$AB$3=1,": MUFG BANK, LTD.","")</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="23" t="str">
-        <f>IF(データ設定用!$AB$3=1,"Address of Bank","")</f>
-        <v>Address of Bank</v>
+        <f>IF(データ設定用!$AB$3=1,"Name of Branch","")</f>
+        <v/>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="26" t="str">
+        <f>IF(データ設定用!$AB$3=1,": ASAKUSA BRANCH","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="23" t="str">
+        <f>IF(データ設定用!$AB$3=1,"Address of Bank","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="26" t="str">
         <f>IF(データ設定用!$AB$3=1,": 4-2, ASAKUSA 1-CHOME, ","")</f>
-        <v xml:space="preserve">: 4-2, ASAKUSA 1-CHOME, </v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="27" t="str">
+        <v/>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="27" t="str">
         <f>IF(データ設定用!$AB$3=1,"   TAITO-KU, TOKYO 111-0032, JAPAN","")</f>
-        <v xml:space="preserve">   TAITO-KU, TOKYO 111-0032, JAPAN</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A43" s="23" t="str">
-        <f>IF(データ設定用!$AB$3=1,"Swift Code","")</f>
-        <v>Swift Code</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="26" t="str">
-        <f>IF(データ設定用!$AB$3=1,": BOTKJPJT","")</f>
-        <v>: BOTKJPJT</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1">
       <c r="A44" s="23" t="str">
-        <f>IF(データ設定用!$AB$3=1,"Account Name","")</f>
-        <v>Account Name</v>
+        <f>IF(データ設定用!$AB$3=1,"Swift Code","")</f>
+        <v/>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="26" t="str">
-        <f>IF(データ設定用!$AB$3=1,": KUWAGATA CO.,LTD.","")</f>
-        <v>: KUWAGATA CO.,LTD.</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+        <f>IF(データ設定用!$AB$3=1,": BOTKJPJT","")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1">
       <c r="A45" s="23" t="str">
-        <f>IF(データ設定用!$AB$3=1,"Account No.","")</f>
-        <v>Account No.</v>
+        <f>IF(データ設定用!$AB$3=1,"Account Name","")</f>
+        <v/>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="26" t="str">
+        <f>IF(データ設定用!$AB$3=1,": KUWAGATA CO.,LTD.","")</f>
+        <v/>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A46" s="23" t="str">
+        <f>IF(データ設定用!$AB$3=1,"Account No.","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="26" t="str">
         <f>IF(データ設定用!$AB$3=1,": 1063143","")</f>
-        <v>: 1063143</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A35:E37"/>
+    <mergeCell ref="A36:E38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:E7" xr:uid="{8313EE8C-1C68-42F1-A74E-29DB07B0800E}">
+      <formula1>"DEBIT NOTE,INVOICE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.98425196850393704" right="0.55118110236220474" top="0.70866141732283472" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2568,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2603,458 +2426,376 @@
     <row r="1" spans="1:39">
       <c r="A1" s="42"/>
       <c r="B1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="W1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="X1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="Y1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Z1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AA1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AB1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AE1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="AD1" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="AG1" s="32"/>
       <c r="AI1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="AJ1" s="31" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="A2"/>
       <c r="B2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="T2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="U2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="V2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="W2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="X2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="Y2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Z2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AA2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AB2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="31" t="s">
         <v>107</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="33">
-        <v>11111111</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D3" s="33"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="34">
-        <v>43719</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="31">
-        <f>SUM(R6:R10)</f>
-        <v>10000000</v>
-      </c>
-      <c r="X3" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y3" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="32">
-        <v>0.08</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="36">
-        <v>43738</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" s="35" t="s">
-        <v>61</v>
-      </c>
+      <c r="H3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="34"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="X3" s="41"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3"/>
+      <c r="AC3" s="36"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="35"/>
       <c r="AG3" s="32"/>
       <c r="AI3" s="31">
         <f>ROUNDDOWN(IF(Y3&lt;&gt;1,0,IF(Y3=1,V3*AA3,V3/(1+AA3)*AA3)),0)</f>
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="31">
         <f>V3+AI3</f>
-        <v>10800000</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="38">
         <f>YEAR(AC3)</f>
-        <v>2019</v>
+        <v>1900</v>
       </c>
       <c r="AL3" s="31">
         <f>MONTH(AC3)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="31">
         <f>DAY(AC3)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4"/>
       <c r="B4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="E4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="M4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="N4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="O4" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="P4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="Q4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="R4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="S4" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5"/>
       <c r="B5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="E5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="M5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="N5" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="O5" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="P5" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="Q5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="R5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>92</v>
-      </c>
       <c r="S5" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="33">
-        <v>10000001</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="31">
-        <v>1000</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
-      <c r="O6" s="31">
-        <v>10000</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" s="31">
-        <f>M6*O6</f>
-        <v>10000000</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>100</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="41"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="42" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E7" s="33"/>
       <c r="G7" s="32"/>
@@ -3068,7 +2809,7 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="42" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E8" s="33"/>
       <c r="G8" s="32"/>
@@ -3082,7 +2823,7 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="42" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E9" s="33"/>
       <c r="G9" s="32"/>
@@ -3096,7 +2837,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="42" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E10" s="33"/>
       <c r="G10" s="32"/>
